--- a/Robot & action Class Method.xlsx
+++ b/Robot & action Class Method.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C493D3FF-1A12-482D-815A-CAEAC6F27F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7D1159-C96B-4296-9163-EF4BB1FC94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>sr.no.</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>actions class object</t>
+  </si>
+  <si>
+    <t>build()</t>
+  </si>
+  <si>
+    <t>method is used to compile all the listed actions into a single step</t>
+  </si>
+  <si>
+    <t>no argument</t>
+  </si>
+  <si>
+    <t>perform()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used to perform the action </t>
   </si>
 </sst>
 </file>
@@ -473,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,6 +549,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -548,6 +566,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -562,6 +583,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -576,6 +600,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -590,6 +617,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -600,6 +630,40 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
